--- a/htdocs/App/Controllers/Traspasos/9570DHN.xlsx
+++ b/htdocs/App/Controllers/Traspasos/9570DHN.xlsx
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>19-10-2017</t>
+    <t>13-11-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Silvia</t>
+    <t>Cristina</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-10-19</t>
+    <t>2017-11-13</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSE </t>
+    <t xml:space="preserve">BEATRIZ </t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -97,7 +97,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t xml:space="preserve">BEATRIZ </t>
+    <t>RAPHAEL PIERRE</t>
   </si>
   <si>
     <t>Pago y Gest. IVTM………………</t>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>811</v>
+        <v>627909833</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>627909833</v>
+        <v>1088</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
